--- a/DMSNewVSale_2025-12-07_18-50.xlsx
+++ b/DMSNewVSale_2025-12-07_18-50.xlsx
@@ -176,6 +176,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -804,12 +813,6 @@
   </si>
   <si>
     <t>25:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
   </si>
   <si>
     <t>ماسك جلسات اطفال</t>
@@ -1850,7 +1853,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1867,7 +1870,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1883,7 +1886,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1900,7 +1903,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1916,7 +1919,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1926,14 +1929,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1942,14 +1945,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1959,14 +1962,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1982,7 +1985,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1992,14 +1995,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2008,31 +2011,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2048,13 +2051,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2065,7 +2068,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2114,7 +2117,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2124,14 +2127,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2140,14 +2143,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2157,11 +2160,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>15</v>
@@ -2180,7 +2183,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2190,14 +2193,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2206,14 +2209,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2246,7 +2249,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,7 +2282,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2289,11 +2292,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2305,14 +2308,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2322,14 +2325,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2338,14 +2341,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2362,7 +2365,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2392,10 +2395,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2404,14 +2407,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2425,10 +2428,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2437,14 +2440,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2458,10 +2461,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2470,14 +2473,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2491,7 +2494,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2503,14 +2506,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2520,14 +2523,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2536,14 +2539,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2553,11 +2556,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2569,14 +2572,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,13 +2612,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2626,7 +2629,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2642,24 +2645,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2668,14 +2671,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2685,14 +2688,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2701,14 +2704,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2725,7 +2728,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2741,7 +2744,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2758,7 +2761,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2774,17 +2777,17 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2807,24 +2810,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2840,7 +2843,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2857,7 +2860,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2883,11 +2886,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>15</v>
@@ -2899,14 +2902,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2916,14 +2919,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2932,14 +2935,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2949,14 +2952,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2965,14 +2968,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2982,14 +2985,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3005,13 +3008,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3038,13 +3041,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3055,7 +3058,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3071,7 +3074,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,7 +3140,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3147,14 +3150,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3163,14 +3166,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3180,14 +3183,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3196,14 +3199,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3213,11 +3216,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3236,7 +3239,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3253,7 +3256,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3286,7 +3289,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3302,7 +3305,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3319,7 +3322,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3335,7 +3338,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,7 +3371,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3378,14 +3381,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3394,14 +3397,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3427,14 +3430,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3444,14 +3447,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>203</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3467,7 +3470,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3477,14 +3480,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3493,14 +3496,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3510,11 +3513,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3526,14 +3529,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3547,7 +3550,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3559,14 +3562,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3576,14 +3579,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>216</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3592,31 +3595,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>15</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3625,28 +3628,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>15</v>
@@ -3658,14 +3661,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3675,11 +3678,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>15</v>
@@ -3704,7 +3707,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3715,7 +3718,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3731,24 +3734,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3757,20 +3760,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3781,7 +3784,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3797,21 +3800,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>15</v>
@@ -3830,7 +3833,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3840,14 +3843,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3863,13 +3866,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3880,7 +3883,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3896,7 +3899,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3906,11 +3909,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>15</v>
@@ -3922,14 +3925,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3939,14 +3942,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3955,14 +3958,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3979,7 +3982,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3995,7 +3998,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4005,11 +4008,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>15</v>
@@ -4021,14 +4024,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4038,11 +4041,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>15</v>
@@ -4078,7 +4081,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4111,7 +4114,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>259</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4120,14 +4123,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4137,14 +4140,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>15</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4153,14 +4156,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4170,11 +4173,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>15</v>
@@ -4186,14 +4189,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4203,11 +4206,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>15</v>
@@ -4219,14 +4222,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4236,11 +4239,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>15</v>
@@ -4259,7 +4262,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4273,7 +4276,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>15</v>
@@ -4292,7 +4295,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4302,11 +4305,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>15</v>
@@ -4318,14 +4321,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4335,11 +4338,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>15</v>
@@ -4351,14 +4354,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4368,11 +4371,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>15</v>
@@ -4391,7 +4394,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4401,51 +4404,84 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="96" ht="26.25" customHeight="1">
-      <c r="N96" s="13">
-        <v>6329.8924999999999</v>
-      </c>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>275</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>70</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>12</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>126</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" ht="26.25" customHeight="1">
+      <c r="N97" s="13">
+        <v>6384.8924999999999</v>
+      </c>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>276</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
         <v>277</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>278</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4899,10 +4935,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
